--- a/media/bills/2_Nihal_Shaikh_SEP_2025.xlsx
+++ b/media/bills/2_Nihal_Shaikh_SEP_2025.xlsx
@@ -1240,7 +1240,7 @@
       </c>
       <c r="E8" s="74" t="inlineStr">
         <is>
-          <t>19/09/2025</t>
+          <t>20/09/2025</t>
         </is>
       </c>
       <c r="F8" s="37" t="n"/>
@@ -1348,10 +1348,10 @@
         <v>2</v>
       </c>
       <c r="E14" s="57" t="n">
-        <v>25000</v>
+        <v>50000</v>
       </c>
       <c r="F14" s="84" t="n">
-        <v>50000</v>
+        <v>100000</v>
       </c>
       <c r="G14" s="1" t="n"/>
       <c r="H14" s="2" t="n"/>
@@ -1381,11 +1381,21 @@
       <c r="J16" s="1" t="n"/>
     </row>
     <row r="17">
-      <c r="A17" s="44" t="n"/>
+      <c r="A17" s="44" t="inlineStr">
+        <is>
+          <t>Toner</t>
+        </is>
+      </c>
       <c r="C17" s="41" t="n"/>
-      <c r="D17" s="38" t="n"/>
-      <c r="E17" s="38" t="n"/>
-      <c r="F17" s="85" t="n"/>
+      <c r="D17" s="38" t="n">
+        <v>5</v>
+      </c>
+      <c r="E17" s="38" t="n">
+        <v>1500</v>
+      </c>
+      <c r="F17" s="85" t="n">
+        <v>7500</v>
+      </c>
       <c r="G17" s="1" t="n"/>
       <c r="H17" s="1" t="n"/>
       <c r="I17" s="1" t="n"/>
@@ -1550,7 +1560,7 @@
       </c>
       <c r="E35" s="25" t="n"/>
       <c r="F35" s="87" t="n">
-        <v>50000</v>
+        <v>107500</v>
       </c>
     </row>
     <row r="36">
